--- a/results/gps/14cores/stats.xlsx
+++ b/results/gps/14cores/stats.xlsx
@@ -676,76 +676,76 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03277777777777777</v>
+        <v>0.03588484848484848</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01220223112567716</v>
+        <v>0.01845843508419865</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0165</v>
+        <v>0.0163</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0244</v>
+        <v>0.0222</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0303</v>
+        <v>0.0285</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0397</v>
+        <v>0.0444</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0536</v>
+        <v>0.0906</v>
       </c>
       <c r="L4" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M4" t="n">
-        <v>103.3555555555556</v>
+        <v>102.5</v>
       </c>
       <c r="N4" t="n">
-        <v>11.77710820947901</v>
+        <v>12.54432142445338</v>
       </c>
       <c r="O4" t="n">
-        <v>80.09999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="P4" t="n">
-        <v>99.2</v>
+        <v>94.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>103.5</v>
+        <v>101.6</v>
       </c>
       <c r="R4" t="n">
         <v>110.9</v>
       </c>
       <c r="S4" t="n">
-        <v>117.3</v>
+        <v>128.1</v>
       </c>
       <c r="T4" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U4" t="n">
-        <v>3.888888888888889</v>
+        <v>4.424242424242424</v>
       </c>
       <c r="V4" t="n">
-        <v>1.90029237516523</v>
+        <v>2.657892762959774</v>
       </c>
       <c r="W4" t="n">
         <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y4" t="n">
         <v>4</v>
       </c>
       <c r="Z4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -757,76 +757,76 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4977777777777778</v>
+        <v>0.5368363636363636</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03228903752737831</v>
+        <v>0.05857650349213103</v>
       </c>
       <c r="G5" t="n">
         <v>0.4457</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4775</v>
+        <v>0.5026</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5026</v>
+        <v>0.5222</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5157</v>
+        <v>0.5545</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5395</v>
+        <v>0.6931</v>
       </c>
       <c r="L5" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M5" t="n">
-        <v>392.3777777777778</v>
+        <v>406.9939393939394</v>
       </c>
       <c r="N5" t="n">
-        <v>19.50517737536484</v>
+        <v>22.06680113023209</v>
       </c>
       <c r="O5" t="n">
         <v>356.2</v>
       </c>
       <c r="P5" t="n">
-        <v>379.6</v>
+        <v>396.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>401</v>
+        <v>405.8</v>
       </c>
       <c r="R5" t="n">
-        <v>405.8</v>
+        <v>421.4</v>
       </c>
       <c r="S5" t="n">
-        <v>411.4</v>
+        <v>455</v>
       </c>
       <c r="T5" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U5" t="n">
-        <v>9.111111111111111</v>
+        <v>15</v>
       </c>
       <c r="V5" t="n">
-        <v>4.986091767217197</v>
+        <v>9.617692030835672</v>
       </c>
       <c r="W5" t="n">
         <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -838,31 +838,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
-        <v>1.186877777777778</v>
+        <v>1.194284848484849</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01028515651044962</v>
+        <v>0.01852262334977354</v>
       </c>
       <c r="G6" t="n">
         <v>1.1691</v>
       </c>
       <c r="H6" t="n">
-        <v>1.1882</v>
+        <v>1.1885</v>
       </c>
       <c r="I6" t="n">
-        <v>1.1885</v>
+        <v>1.1916</v>
       </c>
       <c r="J6" t="n">
-        <v>1.1927</v>
+        <v>1.1971</v>
       </c>
       <c r="K6" t="n">
-        <v>1.1974</v>
+        <v>1.2902</v>
       </c>
       <c r="L6" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M6" t="n">
         <v>101.7</v>
@@ -886,7 +886,7 @@
         <v>101.7</v>
       </c>
       <c r="T6" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U6" t="n">
         <v>58</v>
@@ -919,37 +919,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
-        <v>15.18133333333333</v>
+        <v>15.21872727272727</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2329082437355964</v>
+        <v>0.2694186185946595</v>
       </c>
       <c r="G7" t="n">
-        <v>14.885</v>
+        <v>14.879</v>
       </c>
       <c r="H7" t="n">
-        <v>15.016</v>
+        <v>15.081</v>
       </c>
       <c r="I7" t="n">
-        <v>15.113</v>
+        <v>15.12</v>
       </c>
       <c r="J7" t="n">
-        <v>15.358</v>
+        <v>15.307</v>
       </c>
       <c r="K7" t="n">
-        <v>15.593</v>
+        <v>16.106</v>
       </c>
       <c r="L7" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M7" t="n">
-        <v>10446</v>
+        <v>10446.0303030303</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.1740776559556978</v>
       </c>
       <c r="O7" t="n">
         <v>10446</v>
@@ -964,10 +964,10 @@
         <v>10446</v>
       </c>
       <c r="S7" t="n">
-        <v>10446</v>
+        <v>10447</v>
       </c>
       <c r="T7" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U7" t="n">
         <v>19</v>
@@ -1002,61 +1002,61 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03746666666666667</v>
+        <v>0.0322030303030303</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0236097437512566</v>
+        <v>0.01799778605913247</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0196</v>
+        <v>0.0173</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0207</v>
+        <v>0.0205</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0311</v>
+        <v>0.0299</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0392</v>
+        <v>0.0356</v>
       </c>
       <c r="K8" t="n">
         <v>0.0961</v>
       </c>
       <c r="L8" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M8" t="n">
-        <v>117.6444444444444</v>
+        <v>109.7636363636364</v>
       </c>
       <c r="N8" t="n">
-        <v>30.10004614245264</v>
+        <v>21.9637174987213</v>
       </c>
       <c r="O8" t="n">
-        <v>90.2</v>
+        <v>82</v>
       </c>
       <c r="P8" t="n">
         <v>93.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>115</v>
+        <v>109.2</v>
       </c>
       <c r="R8" t="n">
-        <v>124.2</v>
+        <v>118.5</v>
       </c>
       <c r="S8" t="n">
         <v>189.1</v>
       </c>
       <c r="T8" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U8" t="n">
-        <v>1.666666666666667</v>
+        <v>1.848484848484848</v>
       </c>
       <c r="V8" t="n">
-        <v>0.8660254037844387</v>
+        <v>0.9055803429711565</v>
       </c>
       <c r="W8" t="n">
         <v>1</v>
@@ -1065,13 +1065,13 @@
         <v>1</v>
       </c>
       <c r="Y8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z8" t="n">
         <v>2</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1083,76 +1083,76 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5455777777777777</v>
+        <v>0.5434666666666665</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06818712814339994</v>
+        <v>0.07678676101169177</v>
       </c>
       <c r="G9" t="n">
         <v>0.4305</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5295</v>
+        <v>0.4743</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5497</v>
+        <v>0.5325</v>
       </c>
       <c r="J9" t="n">
         <v>0.5784</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6414</v>
+        <v>0.7536</v>
       </c>
       <c r="L9" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M9" t="n">
-        <v>406.5111111111111</v>
+        <v>403.6303030303031</v>
       </c>
       <c r="N9" t="n">
-        <v>30.24381938696089</v>
+        <v>26.03846295445073</v>
       </c>
       <c r="O9" t="n">
         <v>348.9</v>
       </c>
       <c r="P9" t="n">
-        <v>402.3</v>
+        <v>383.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>416.2</v>
+        <v>413.6</v>
       </c>
       <c r="R9" t="n">
-        <v>422.7</v>
+        <v>422.4</v>
       </c>
       <c r="S9" t="n">
-        <v>437.1</v>
+        <v>445.1</v>
       </c>
       <c r="T9" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U9" t="n">
-        <v>13.88888888888889</v>
+        <v>14</v>
       </c>
       <c r="V9" t="n">
-        <v>8.579691784155834</v>
+        <v>10.08712050091601</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Y9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AA9" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -1164,37 +1164,37 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5174888888888889</v>
+        <v>0.5169575757575757</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001260401170703634</v>
+        <v>0.00248671850827429</v>
       </c>
       <c r="G10" t="n">
+        <v>0.5095</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.5157</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.5165999999999999</v>
-      </c>
       <c r="I10" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.5175</v>
       </c>
       <c r="J10" t="n">
         <v>0.5184</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5192</v>
+        <v>0.5212</v>
       </c>
       <c r="L10" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M10" t="n">
-        <v>62.70000000000001</v>
+        <v>62.7</v>
       </c>
       <c r="N10" t="n">
-        <v>7.53644380168212e-15</v>
+        <v>7.215595591812694e-15</v>
       </c>
       <c r="O10" t="n">
         <v>62.7</v>
@@ -1212,7 +1212,7 @@
         <v>62.7</v>
       </c>
       <c r="T10" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U10" t="n">
         <v>12</v>
@@ -1245,37 +1245,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E11" t="n">
-        <v>14.85955555555555</v>
+        <v>14.87560606060606</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1736325942263658</v>
+        <v>0.2517065428472633</v>
       </c>
       <c r="G11" t="n">
-        <v>14.59</v>
+        <v>14.553</v>
       </c>
       <c r="H11" t="n">
-        <v>14.79</v>
+        <v>14.674</v>
       </c>
       <c r="I11" t="n">
         <v>14.88</v>
       </c>
       <c r="J11" t="n">
-        <v>14.903</v>
+        <v>14.952</v>
       </c>
       <c r="K11" t="n">
-        <v>15.189</v>
+        <v>15.858</v>
       </c>
       <c r="L11" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M11" t="n">
-        <v>10200.33333333333</v>
+        <v>10214.45454545455</v>
       </c>
       <c r="N11" t="n">
-        <v>93.50133688883813</v>
+        <v>67.95682954507356</v>
       </c>
       <c r="O11" t="n">
         <v>9951</v>
@@ -1293,7 +1293,7 @@
         <v>10232</v>
       </c>
       <c r="T11" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U11" t="n">
         <v>19</v>
@@ -1328,13 +1328,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07466666666666667</v>
+        <v>0.07976666666666667</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03818497741258989</v>
+        <v>0.04924869710628563</v>
       </c>
       <c r="G12" t="n">
         <v>0.0172</v>
@@ -1343,52 +1343,52 @@
         <v>0.0461</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08169999999999999</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0921</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1313</v>
+        <v>0.1913</v>
       </c>
       <c r="L12" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M12" t="n">
-        <v>146.4333333333333</v>
+        <v>139.3424242424242</v>
       </c>
       <c r="N12" t="n">
-        <v>41.20967726153652</v>
+        <v>34.80111376004213</v>
       </c>
       <c r="O12" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="P12" t="n">
-        <v>105.4</v>
+        <v>113.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>155.7</v>
+        <v>133.6</v>
       </c>
       <c r="R12" t="n">
-        <v>176.6</v>
+        <v>158.3</v>
       </c>
       <c r="S12" t="n">
-        <v>205.3</v>
+        <v>225.5</v>
       </c>
       <c r="T12" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5</v>
+        <v>0.6498834394323991</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>1</v>
@@ -1409,76 +1409,76 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6093888888888889</v>
+        <v>0.5987242424242425</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09906745737683549</v>
+        <v>0.08983739835914326</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4775</v>
+        <v>0.4538</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5605</v>
+        <v>0.5515</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.5851</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6483</v>
+        <v>0.636</v>
       </c>
       <c r="K13" t="n">
         <v>0.805</v>
       </c>
       <c r="L13" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M13" t="n">
-        <v>427.6</v>
+        <v>425.1</v>
       </c>
       <c r="N13" t="n">
-        <v>23.73920807440721</v>
+        <v>23.3584567127197</v>
       </c>
       <c r="O13" t="n">
-        <v>379.2</v>
+        <v>369.4</v>
       </c>
       <c r="P13" t="n">
-        <v>418.5</v>
+        <v>410.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>429.3</v>
+        <v>430.9</v>
       </c>
       <c r="R13" t="n">
-        <v>440.9</v>
+        <v>438.9</v>
       </c>
       <c r="S13" t="n">
-        <v>461.6</v>
+        <v>462.7</v>
       </c>
       <c r="T13" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U13" t="n">
-        <v>20.33333333333333</v>
+        <v>18.93939393939394</v>
       </c>
       <c r="V13" t="n">
-        <v>11.2138307460029</v>
+        <v>10.40714716534806</v>
       </c>
       <c r="W13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
@@ -1490,37 +1490,37 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4568666666666666</v>
+        <v>0.4569090909090909</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00133416640641263</v>
+        <v>0.001537523096648394</v>
       </c>
       <c r="G14" t="n">
-        <v>0.455</v>
+        <v>0.4533</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4557</v>
+        <v>0.4559</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4573</v>
+        <v>0.4568</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4576</v>
+        <v>0.4582</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4587</v>
+        <v>0.4609</v>
       </c>
       <c r="L14" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M14" t="n">
-        <v>50.0888888888889</v>
+        <v>50.08484848484849</v>
       </c>
       <c r="N14" t="n">
-        <v>0.03333333333333381</v>
+        <v>0.03641095406272148</v>
       </c>
       <c r="O14" t="n">
         <v>50</v>
@@ -1538,7 +1538,7 @@
         <v>50.1</v>
       </c>
       <c r="T14" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U14" t="n">
         <v>4</v>
@@ -1571,37 +1571,37 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E15" t="n">
-        <v>14.78466666666667</v>
+        <v>14.77657575757576</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2706302828583674</v>
+        <v>0.3022776073313061</v>
       </c>
       <c r="G15" t="n">
-        <v>14.445</v>
+        <v>14.406</v>
       </c>
       <c r="H15" t="n">
+        <v>14.576</v>
+      </c>
+      <c r="I15" t="n">
         <v>14.698</v>
-      </c>
-      <c r="I15" t="n">
-        <v>14.715</v>
       </c>
       <c r="J15" t="n">
         <v>14.851</v>
       </c>
       <c r="K15" t="n">
-        <v>15.311</v>
+        <v>15.535</v>
       </c>
       <c r="L15" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M15" t="n">
-        <v>9808.111111111111</v>
+        <v>9813.969696969696</v>
       </c>
       <c r="N15" t="n">
-        <v>85.32356714947582</v>
+        <v>82.88866208975931</v>
       </c>
       <c r="O15" t="n">
         <v>9738</v>
@@ -1613,13 +1613,13 @@
         <v>9754</v>
       </c>
       <c r="R15" t="n">
-        <v>9921</v>
+        <v>9922</v>
       </c>
       <c r="S15" t="n">
         <v>9922</v>
       </c>
       <c r="T15" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U15" t="n">
         <v>19</v>
@@ -1654,61 +1654,61 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09757777777777776</v>
+        <v>0.09009393939393938</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05029256351036845</v>
+        <v>0.05094393940520513</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0524</v>
+        <v>0.0219</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0692</v>
+        <v>0.0594</v>
       </c>
       <c r="I16" t="n">
         <v>0.0712</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1299</v>
+        <v>0.1193</v>
       </c>
       <c r="K16" t="n">
-        <v>0.204</v>
+        <v>0.2511</v>
       </c>
       <c r="L16" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M16" t="n">
-        <v>162.0111111111111</v>
+        <v>146.7969696969697</v>
       </c>
       <c r="N16" t="n">
-        <v>39.15821894712668</v>
+        <v>34.60982957239609</v>
       </c>
       <c r="O16" t="n">
-        <v>113.3</v>
+        <v>95</v>
       </c>
       <c r="P16" t="n">
-        <v>138.9</v>
+        <v>122.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>145.8</v>
+        <v>140.8</v>
       </c>
       <c r="R16" t="n">
-        <v>200.7</v>
+        <v>166.8</v>
       </c>
       <c r="S16" t="n">
         <v>221.2</v>
       </c>
       <c r="T16" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U16" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5270462766947299</v>
+        <v>0.5075192189225523</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16" t="n">
         <v>1</v>
@@ -1735,76 +1735,76 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5721333333333334</v>
+        <v>0.6355363636363638</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1189135189959493</v>
+        <v>0.1597273669768698</v>
       </c>
       <c r="G17" t="n">
         <v>0.4429</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5118</v>
+        <v>0.514</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5589</v>
+        <v>0.5886</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5726</v>
+        <v>0.7331</v>
       </c>
       <c r="K17" t="n">
-        <v>0.797</v>
+        <v>1.1455</v>
       </c>
       <c r="L17" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M17" t="n">
-        <v>408.5</v>
+        <v>426.260606060606</v>
       </c>
       <c r="N17" t="n">
-        <v>33.05431136780799</v>
+        <v>37.02376719245642</v>
       </c>
       <c r="O17" t="n">
-        <v>353.4</v>
+        <v>350.8</v>
       </c>
       <c r="P17" t="n">
-        <v>389.7</v>
+        <v>405.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>420.2</v>
+        <v>428.1</v>
       </c>
       <c r="R17" t="n">
-        <v>428.3</v>
+        <v>455</v>
       </c>
       <c r="S17" t="n">
-        <v>447</v>
+        <v>491.3</v>
       </c>
       <c r="T17" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U17" t="n">
-        <v>11.55555555555556</v>
+        <v>16.96969696969697</v>
       </c>
       <c r="V17" t="n">
-        <v>9.395625459636936</v>
+        <v>12.78545278941278</v>
       </c>
       <c r="W17" t="n">
         <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z17" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AA17" t="n">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
@@ -1816,31 +1816,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4560333333333333</v>
+        <v>0.456030303030303</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002139509289533464</v>
+        <v>0.002255615887136598</v>
       </c>
       <c r="G18" t="n">
         <v>0.451</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4556</v>
+        <v>0.455</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4566</v>
+        <v>0.4568</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4571</v>
+        <v>0.4578</v>
       </c>
       <c r="K18" t="n">
         <v>0.4586</v>
       </c>
       <c r="L18" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M18" t="n">
         <v>46.4</v>
@@ -1864,7 +1864,7 @@
         <v>46.4</v>
       </c>
       <c r="T18" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U18" t="n">
         <v>2</v>
@@ -1897,31 +1897,31 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E19" t="n">
-        <v>13.70444444444444</v>
+        <v>13.81712121212121</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2242053250433134</v>
+        <v>0.258171909487622</v>
       </c>
       <c r="G19" t="n">
-        <v>13.508</v>
+        <v>13.498</v>
       </c>
       <c r="H19" t="n">
-        <v>13.616</v>
+        <v>13.644</v>
       </c>
       <c r="I19" t="n">
-        <v>13.645</v>
+        <v>13.753</v>
       </c>
       <c r="J19" t="n">
-        <v>13.66</v>
+        <v>13.902</v>
       </c>
       <c r="K19" t="n">
-        <v>14.276</v>
+        <v>14.656</v>
       </c>
       <c r="L19" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M19" t="n">
         <v>9720</v>
@@ -1945,7 +1945,7 @@
         <v>9720</v>
       </c>
       <c r="T19" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U19" t="n">
         <v>18</v>
@@ -1980,61 +1980,61 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1065666666666667</v>
+        <v>0.1017575757575758</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06623312992755212</v>
+        <v>0.06922202968664956</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0221</v>
+        <v>0.0213</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0444</v>
+        <v>0.0501</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09760000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1585</v>
+        <v>0.1512</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2108</v>
+        <v>0.3333</v>
       </c>
       <c r="L20" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M20" t="n">
-        <v>152.7333333333333</v>
+        <v>150.8757575757576</v>
       </c>
       <c r="N20" t="n">
-        <v>46.15677090091984</v>
+        <v>41.43125352845837</v>
       </c>
       <c r="O20" t="n">
         <v>96.8</v>
       </c>
       <c r="P20" t="n">
-        <v>108.6</v>
+        <v>115.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.8</v>
+        <v>145.8</v>
       </c>
       <c r="R20" t="n">
-        <v>184.2</v>
+        <v>178.2</v>
       </c>
       <c r="S20" t="n">
-        <v>218.7</v>
+        <v>247.8</v>
       </c>
       <c r="T20" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5</v>
+        <v>0.5056498968474316</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2061,76 +2061,76 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6493777777777777</v>
+        <v>0.6644030303030304</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1085935630893675</v>
+        <v>0.1388125635633544</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5175</v>
+        <v>0.4459</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5655</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6215000000000001</v>
+        <v>0.6273</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6611</v>
+        <v>0.7655999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8868</v>
+        <v>0.9613</v>
       </c>
       <c r="L21" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M21" t="n">
-        <v>402.7111111111112</v>
+        <v>401.2878787878788</v>
       </c>
       <c r="N21" t="n">
-        <v>14.85146831498862</v>
+        <v>21.67084385723935</v>
       </c>
       <c r="O21" t="n">
+        <v>350.6</v>
+      </c>
+      <c r="P21" t="n">
         <v>381.8</v>
       </c>
-      <c r="P21" t="n">
-        <v>389.3</v>
-      </c>
       <c r="Q21" t="n">
-        <v>403.6</v>
+        <v>407</v>
       </c>
       <c r="R21" t="n">
-        <v>416.2</v>
+        <v>417.5</v>
       </c>
       <c r="S21" t="n">
-        <v>422.7</v>
+        <v>436.4</v>
       </c>
       <c r="T21" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U21" t="n">
-        <v>13.88888888888889</v>
+        <v>14.81818181818182</v>
       </c>
       <c r="V21" t="n">
-        <v>7.287737036358482</v>
+        <v>9.241396490298914</v>
       </c>
       <c r="W21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
         <v>8</v>
       </c>
       <c r="Y21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z21" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AA21" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
@@ -2142,13 +2142,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4555111111111111</v>
+        <v>0.4559363636363636</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003474350458878773</v>
+        <v>0.002526338529104197</v>
       </c>
       <c r="G22" t="n">
         <v>0.4496</v>
@@ -2157,16 +2157,16 @@
         <v>0.4551</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4566</v>
+        <v>0.4564</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4577</v>
+        <v>0.4578</v>
       </c>
       <c r="K22" t="n">
-        <v>0.459</v>
+        <v>0.4592</v>
       </c>
       <c r="L22" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M22" t="n">
         <v>46.4</v>
@@ -2190,7 +2190,7 @@
         <v>46.4</v>
       </c>
       <c r="T22" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U22" t="n">
         <v>2</v>
@@ -2223,37 +2223,37 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E23" t="n">
-        <v>12.41777777777778</v>
+        <v>12.44666666666667</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2294524884250431</v>
+        <v>0.2188176562041252</v>
       </c>
       <c r="G23" t="n">
-        <v>12.196</v>
+        <v>12.193</v>
       </c>
       <c r="H23" t="n">
-        <v>12.265</v>
+        <v>12.281</v>
       </c>
       <c r="I23" t="n">
-        <v>12.407</v>
+        <v>12.425</v>
       </c>
       <c r="J23" t="n">
-        <v>12.449</v>
+        <v>12.509</v>
       </c>
       <c r="K23" t="n">
-        <v>12.964</v>
+        <v>13.018</v>
       </c>
       <c r="L23" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M23" t="n">
-        <v>9228</v>
+        <v>9228.30303030303</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>0.5294365215047317</v>
       </c>
       <c r="O23" t="n">
         <v>9228</v>
@@ -2265,13 +2265,13 @@
         <v>9228</v>
       </c>
       <c r="R23" t="n">
-        <v>9228</v>
+        <v>9229</v>
       </c>
       <c r="S23" t="n">
-        <v>9228</v>
+        <v>9230</v>
       </c>
       <c r="T23" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U23" t="n">
         <v>17</v>
@@ -2310,76 +2310,76 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1197555555555556</v>
+        <v>0.1427515151515152</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04145485831332412</v>
+        <v>0.08048504566537547</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07539999999999999</v>
+        <v>0.0364</v>
       </c>
       <c r="H24" t="n">
         <v>0.08989999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1026</v>
+        <v>0.1285</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1564</v>
+        <v>0.1712</v>
       </c>
       <c r="K24" t="n">
-        <v>0.183</v>
+        <v>0.3937</v>
       </c>
       <c r="L24" t="n">
+        <v>33</v>
+      </c>
+      <c r="M24" t="n">
+        <v>149.0909090909091</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15.01857940261752</v>
+      </c>
+      <c r="O24" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>159.4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>174.2</v>
+      </c>
+      <c r="T24" t="n">
+        <v>33</v>
+      </c>
+      <c r="U24" t="n">
+        <v>12</v>
+      </c>
+      <c r="V24" t="n">
+        <v>4.656984002549289</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2</v>
+      </c>
+      <c r="X24" t="n">
         <v>9</v>
-      </c>
-      <c r="M24" t="n">
-        <v>145.8222222222222</v>
-      </c>
-      <c r="N24" t="n">
-        <v>12.19321304843168</v>
-      </c>
-      <c r="O24" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="P24" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>142.7</v>
-      </c>
-      <c r="R24" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="S24" t="n">
-        <v>172.4</v>
-      </c>
-      <c r="T24" t="n">
-        <v>9</v>
-      </c>
-      <c r="U24" t="n">
-        <v>11.66666666666667</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.692582403567252</v>
-      </c>
-      <c r="W24" t="n">
-        <v>8</v>
-      </c>
-      <c r="X24" t="n">
-        <v>10</v>
       </c>
       <c r="Y24" t="n">
         <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA24" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -2391,76 +2391,76 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E25" t="n">
-        <v>2.779733333333333</v>
+        <v>2.768824242424242</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1816661223233435</v>
+        <v>0.1910282325834048</v>
       </c>
       <c r="G25" t="n">
-        <v>2.4822</v>
+        <v>2.4382</v>
       </c>
       <c r="H25" t="n">
-        <v>2.707</v>
+        <v>2.6353</v>
       </c>
       <c r="I25" t="n">
         <v>2.7838</v>
       </c>
       <c r="J25" t="n">
-        <v>2.9083</v>
+        <v>2.9075</v>
       </c>
       <c r="K25" t="n">
-        <v>2.9969</v>
+        <v>3.1023</v>
       </c>
       <c r="L25" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M25" t="n">
-        <v>458.7555555555556</v>
+        <v>455.4424242424242</v>
       </c>
       <c r="N25" t="n">
-        <v>13.93171840720943</v>
+        <v>13.0707218216667</v>
       </c>
       <c r="O25" t="n">
-        <v>435.4</v>
+        <v>431.5</v>
       </c>
       <c r="P25" t="n">
-        <v>450.9</v>
+        <v>444.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>457.3</v>
+        <v>457.8</v>
       </c>
       <c r="R25" t="n">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="S25" t="n">
         <v>473.8</v>
       </c>
       <c r="T25" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U25" t="n">
-        <v>6.444444444444445</v>
+        <v>6.212121212121212</v>
       </c>
       <c r="V25" t="n">
-        <v>2.697735676039775</v>
+        <v>2.869642570922115</v>
       </c>
       <c r="W25" t="n">
         <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z25" t="n">
         <v>8</v>
       </c>
       <c r="AA25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2472,31 +2472,31 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E26" t="n">
-        <v>13.72366666666667</v>
+        <v>13.67966666666667</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05949789912257412</v>
+        <v>0.08167529716301414</v>
       </c>
       <c r="G26" t="n">
-        <v>13.673</v>
+        <v>13.478</v>
       </c>
       <c r="H26" t="n">
-        <v>13.689</v>
+        <v>13.653</v>
       </c>
       <c r="I26" t="n">
-        <v>13.701</v>
+        <v>13.692</v>
       </c>
       <c r="J26" t="n">
-        <v>13.737</v>
+        <v>13.732</v>
       </c>
       <c r="K26" t="n">
         <v>13.855</v>
       </c>
       <c r="L26" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M26" t="n">
         <v>212.6</v>
@@ -2520,7 +2520,7 @@
         <v>212.6</v>
       </c>
       <c r="T26" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U26" t="n">
         <v>160</v>
@@ -2553,31 +2553,31 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E27" t="n">
-        <v>335.8944444444444</v>
+        <v>331.1451515151516</v>
       </c>
       <c r="F27" t="n">
-        <v>11.55277467874179</v>
+        <v>8.73266823528615</v>
       </c>
       <c r="G27" t="n">
-        <v>319.42</v>
+        <v>317.87</v>
       </c>
       <c r="H27" t="n">
-        <v>326.26</v>
+        <v>324.15</v>
       </c>
       <c r="I27" t="n">
-        <v>339.82</v>
+        <v>330.55</v>
       </c>
       <c r="J27" t="n">
-        <v>343.37</v>
+        <v>336.78</v>
       </c>
       <c r="K27" t="n">
         <v>350.03</v>
       </c>
       <c r="L27" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M27" t="n">
         <v>55619</v>
@@ -2601,7 +2601,7 @@
         <v>55619</v>
       </c>
       <c r="T27" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U27" t="n">
         <v>33</v>
@@ -2636,76 +2636,76 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E28" t="n">
-        <v>0.09434444444444444</v>
+        <v>0.1023606060606061</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08286952261101652</v>
+        <v>0.07920325095677078</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0346</v>
+        <v>0.0287</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0547</v>
+        <v>0.0545</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0617</v>
+        <v>0.07870000000000001</v>
       </c>
       <c r="J28" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.0994</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3018</v>
+        <v>0.3586</v>
       </c>
       <c r="L28" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M28" t="n">
-        <v>140.2444444444444</v>
+        <v>138.6212121212121</v>
       </c>
       <c r="N28" t="n">
-        <v>31.72629473761122</v>
+        <v>20.85317358305082</v>
       </c>
       <c r="O28" t="n">
-        <v>113.2</v>
+        <v>101.2</v>
       </c>
       <c r="P28" t="n">
-        <v>121.8</v>
+        <v>122.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.7</v>
+        <v>138.4</v>
       </c>
       <c r="R28" t="n">
-        <v>142.9</v>
+        <v>148.4</v>
       </c>
       <c r="S28" t="n">
         <v>210.2</v>
       </c>
       <c r="T28" t="n">
+        <v>33</v>
+      </c>
+      <c r="U28" t="n">
+        <v>6.454545454545454</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3.841312512433975</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1</v>
+      </c>
+      <c r="X28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z28" t="n">
         <v>9</v>
       </c>
-      <c r="U28" t="n">
-        <v>5.666666666666667</v>
-      </c>
-      <c r="V28" t="n">
-        <v>3.201562118716424</v>
-      </c>
-      <c r="W28" t="n">
-        <v>2</v>
-      </c>
-      <c r="X28" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>7</v>
-      </c>
       <c r="AA28" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -2717,76 +2717,76 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E29" t="n">
-        <v>2.809922222222223</v>
+        <v>2.855957575757576</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2802117002276037</v>
+        <v>0.2056812583074583</v>
       </c>
       <c r="G29" t="n">
         <v>2.3962</v>
       </c>
       <c r="H29" t="n">
-        <v>2.5919</v>
+        <v>2.7674</v>
       </c>
       <c r="I29" t="n">
         <v>2.8734</v>
       </c>
       <c r="J29" t="n">
-        <v>3.0454</v>
+        <v>3.008</v>
       </c>
       <c r="K29" t="n">
-        <v>3.0916</v>
+        <v>3.1762</v>
       </c>
       <c r="L29" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M29" t="n">
-        <v>446.4444444444445</v>
+        <v>447.0727272727273</v>
       </c>
       <c r="N29" t="n">
-        <v>9.878779164338978</v>
+        <v>6.671781655191176</v>
       </c>
       <c r="O29" t="n">
-        <v>429.9</v>
+        <v>429.3</v>
       </c>
       <c r="P29" t="n">
-        <v>444</v>
+        <v>445.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>448.3</v>
+        <v>448.7</v>
       </c>
       <c r="R29" t="n">
-        <v>452.7</v>
+        <v>450.7</v>
       </c>
       <c r="S29" t="n">
         <v>460</v>
       </c>
       <c r="T29" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U29" t="n">
-        <v>6.666666666666667</v>
+        <v>7.272727272727272</v>
       </c>
       <c r="V29" t="n">
-        <v>3.640054944640259</v>
+        <v>2.896902734740236</v>
       </c>
       <c r="W29" t="n">
         <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -2798,43 +2798,43 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E30" t="n">
-        <v>4.201544444444444</v>
+        <v>4.176033333333333</v>
       </c>
       <c r="F30" t="n">
-        <v>0.02421033411123814</v>
+        <v>0.03430779491116654</v>
       </c>
       <c r="G30" t="n">
-        <v>4.1522</v>
+        <v>4.1216</v>
       </c>
       <c r="H30" t="n">
-        <v>4.1977</v>
+        <v>4.1394</v>
       </c>
       <c r="I30" t="n">
-        <v>4.199</v>
+        <v>4.1859</v>
       </c>
       <c r="J30" t="n">
-        <v>4.2142</v>
+        <v>4.1986</v>
       </c>
       <c r="K30" t="n">
-        <v>4.2421</v>
+        <v>4.2447</v>
       </c>
       <c r="L30" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M30" t="n">
-        <v>137.5666666666667</v>
+        <v>137.5878787878788</v>
       </c>
       <c r="N30" t="n">
-        <v>0.04999999999999716</v>
+        <v>0.03314339826397896</v>
       </c>
       <c r="O30" t="n">
         <v>137.5</v>
       </c>
       <c r="P30" t="n">
-        <v>137.5</v>
+        <v>137.6</v>
       </c>
       <c r="Q30" t="n">
         <v>137.6</v>
@@ -2846,7 +2846,7 @@
         <v>137.6</v>
       </c>
       <c r="T30" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U30" t="n">
         <v>66</v>
@@ -2879,37 +2879,37 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E31" t="n">
-        <v>227.4966666666667</v>
+        <v>229.2639393939394</v>
       </c>
       <c r="F31" t="n">
-        <v>2.71811055698623</v>
+        <v>5.463860779816056</v>
       </c>
       <c r="G31" t="n">
-        <v>223.87</v>
+        <v>222.73</v>
       </c>
       <c r="H31" t="n">
-        <v>225.98</v>
+        <v>224.74</v>
       </c>
       <c r="I31" t="n">
-        <v>227.55</v>
+        <v>227.89</v>
       </c>
       <c r="J31" t="n">
-        <v>228.91</v>
+        <v>232.37</v>
       </c>
       <c r="K31" t="n">
-        <v>232.79</v>
+        <v>244.59</v>
       </c>
       <c r="L31" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M31" t="n">
-        <v>53995</v>
+        <v>53995.0303030303</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.1740776559556978</v>
       </c>
       <c r="O31" t="n">
         <v>53995</v>
@@ -2924,10 +2924,10 @@
         <v>53995</v>
       </c>
       <c r="S31" t="n">
-        <v>53995</v>
+        <v>53996</v>
       </c>
       <c r="T31" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U31" t="n">
         <v>33</v>
@@ -2962,64 +2962,64 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1378</v>
+        <v>0.1401363636363636</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06991614620386338</v>
+        <v>0.09439618245121799</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0559</v>
+        <v>0.0414</v>
       </c>
       <c r="H32" t="n">
-        <v>0.06279999999999999</v>
+        <v>0.0658</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1335</v>
+        <v>0.1186</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1978</v>
+        <v>0.1835</v>
       </c>
       <c r="K32" t="n">
-        <v>0.2301</v>
+        <v>0.4965</v>
       </c>
       <c r="L32" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M32" t="n">
-        <v>153.7888888888889</v>
+        <v>154.7666666666667</v>
       </c>
       <c r="N32" t="n">
-        <v>25.37333464704849</v>
+        <v>22.79507439484825</v>
       </c>
       <c r="O32" t="n">
         <v>120.1</v>
       </c>
       <c r="P32" t="n">
-        <v>126.1</v>
+        <v>129.8</v>
       </c>
       <c r="Q32" t="n">
-        <v>161.6</v>
+        <v>159.9</v>
       </c>
       <c r="R32" t="n">
-        <v>167</v>
+        <v>167.4</v>
       </c>
       <c r="S32" t="n">
-        <v>190.1</v>
+        <v>204</v>
       </c>
       <c r="T32" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>5.545454545454546</v>
       </c>
       <c r="V32" t="n">
-        <v>1.58113883008419</v>
+        <v>2.251262272189053</v>
       </c>
       <c r="W32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X32" t="n">
         <v>4</v>
@@ -3028,10 +3028,10 @@
         <v>5</v>
       </c>
       <c r="Z32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA32" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -3043,61 +3043,61 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E33" t="n">
-        <v>2.784633333333334</v>
+        <v>2.940090909090909</v>
       </c>
       <c r="F33" t="n">
-        <v>0.308265044239531</v>
+        <v>0.2738340799686422</v>
       </c>
       <c r="G33" t="n">
         <v>2.5119</v>
       </c>
       <c r="H33" t="n">
-        <v>2.5658</v>
+        <v>2.701</v>
       </c>
       <c r="I33" t="n">
-        <v>2.6105</v>
+        <v>2.9371</v>
       </c>
       <c r="J33" t="n">
-        <v>2.948</v>
+        <v>3.1615</v>
       </c>
       <c r="K33" t="n">
-        <v>3.3474</v>
+        <v>3.447</v>
       </c>
       <c r="L33" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M33" t="n">
-        <v>436.7666666666667</v>
+        <v>441.1606060606061</v>
       </c>
       <c r="N33" t="n">
-        <v>5.821941257003544</v>
+        <v>6.210824190170913</v>
       </c>
       <c r="O33" t="n">
         <v>428.5</v>
       </c>
       <c r="P33" t="n">
-        <v>433.3</v>
+        <v>435.8</v>
       </c>
       <c r="Q33" t="n">
-        <v>435.8</v>
+        <v>442.3</v>
       </c>
       <c r="R33" t="n">
-        <v>442.4</v>
+        <v>443.5</v>
       </c>
       <c r="S33" t="n">
-        <v>443.5</v>
+        <v>458.1</v>
       </c>
       <c r="T33" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>6.757575757575758</v>
       </c>
       <c r="V33" t="n">
-        <v>3.278719262151</v>
+        <v>3.000315639960892</v>
       </c>
       <c r="W33" t="n">
         <v>2</v>
@@ -3106,13 +3106,13 @@
         <v>3</v>
       </c>
       <c r="Y33" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z33" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -3124,37 +3124,37 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E34" t="n">
-        <v>2.178966666666666</v>
+        <v>2.173448484848485</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01104366334148221</v>
+        <v>0.01381408070620609</v>
       </c>
       <c r="G34" t="n">
-        <v>2.1585</v>
+        <v>2.1437</v>
       </c>
       <c r="H34" t="n">
-        <v>2.1723</v>
+        <v>2.1649</v>
       </c>
       <c r="I34" t="n">
+        <v>2.1718</v>
+      </c>
+      <c r="J34" t="n">
         <v>2.1835</v>
       </c>
-      <c r="J34" t="n">
-        <v>2.1852</v>
-      </c>
       <c r="K34" t="n">
-        <v>2.1906</v>
+        <v>2.2047</v>
       </c>
       <c r="L34" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M34" t="n">
-        <v>107.6888888888889</v>
+        <v>107.6909090909091</v>
       </c>
       <c r="N34" t="n">
-        <v>0.03333333333333618</v>
+        <v>0.0291937104060596</v>
       </c>
       <c r="O34" t="n">
         <v>107.6</v>
@@ -3172,7 +3172,7 @@
         <v>107.7</v>
       </c>
       <c r="T34" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U34" t="n">
         <v>32</v>
@@ -3205,31 +3205,31 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E35" t="n">
-        <v>160.3011111111111</v>
+        <v>160.8857575757576</v>
       </c>
       <c r="F35" t="n">
-        <v>2.816231721842347</v>
+        <v>2.698301584218104</v>
       </c>
       <c r="G35" t="n">
-        <v>156.84</v>
+        <v>156.52</v>
       </c>
       <c r="H35" t="n">
-        <v>157.55</v>
+        <v>158.22</v>
       </c>
       <c r="I35" t="n">
-        <v>160.49</v>
+        <v>161.49</v>
       </c>
       <c r="J35" t="n">
         <v>163.06</v>
       </c>
       <c r="K35" t="n">
-        <v>163.61</v>
+        <v>165.21</v>
       </c>
       <c r="L35" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M35" t="n">
         <v>53183</v>
@@ -3253,7 +3253,7 @@
         <v>53183</v>
       </c>
       <c r="T35" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U35" t="n">
         <v>33</v>
@@ -3288,61 +3288,61 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2541888888888889</v>
+        <v>0.2115515151515152</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1571417707393903</v>
+        <v>0.212291212314023</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0443</v>
+        <v>0.0312</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1071</v>
+        <v>0.0848</v>
       </c>
       <c r="I36" t="n">
+        <v>0.1422</v>
+      </c>
+      <c r="J36" t="n">
         <v>0.298</v>
       </c>
-      <c r="J36" t="n">
-        <v>0.3918</v>
-      </c>
       <c r="K36" t="n">
-        <v>0.4295</v>
+        <v>1.0755</v>
       </c>
       <c r="L36" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M36" t="n">
-        <v>185.1888888888889</v>
+        <v>170.8333333333333</v>
       </c>
       <c r="N36" t="n">
-        <v>41.10810274278188</v>
+        <v>40.33436551709556</v>
       </c>
       <c r="O36" t="n">
-        <v>130.3</v>
+        <v>106.1</v>
       </c>
       <c r="P36" t="n">
-        <v>153.4</v>
+        <v>144.1</v>
       </c>
       <c r="Q36" t="n">
-        <v>171.7</v>
+        <v>165</v>
       </c>
       <c r="R36" t="n">
-        <v>230.4</v>
+        <v>200.3</v>
       </c>
       <c r="S36" t="n">
-        <v>235.5</v>
+        <v>274</v>
       </c>
       <c r="T36" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U36" t="n">
-        <v>3.111111111111111</v>
+        <v>3.121212121212121</v>
       </c>
       <c r="V36" t="n">
-        <v>1.452966314513558</v>
+        <v>1.386487823548582</v>
       </c>
       <c r="W36" t="n">
         <v>1</v>
@@ -3369,76 +3369,76 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E37" t="n">
-        <v>3.092966666666667</v>
+        <v>3.179115151515151</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3557128652438649</v>
+        <v>0.3922936974713684</v>
       </c>
       <c r="G37" t="n">
         <v>2.4933</v>
       </c>
       <c r="H37" t="n">
-        <v>2.8368</v>
+        <v>2.9314</v>
       </c>
       <c r="I37" t="n">
-        <v>3.0947</v>
+        <v>3.1815</v>
       </c>
       <c r="J37" t="n">
-        <v>3.3531</v>
+        <v>3.528</v>
       </c>
       <c r="K37" t="n">
-        <v>3.5361</v>
+        <v>3.9831</v>
       </c>
       <c r="L37" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M37" t="n">
-        <v>436.8222222222223</v>
+        <v>437.7484848484848</v>
       </c>
       <c r="N37" t="n">
-        <v>5.908209918786266</v>
+        <v>4.522521504379581</v>
       </c>
       <c r="O37" t="n">
         <v>426.5</v>
       </c>
       <c r="P37" t="n">
-        <v>431</v>
+        <v>437.1</v>
       </c>
       <c r="Q37" t="n">
-        <v>439.7</v>
+        <v>439.6</v>
       </c>
       <c r="R37" t="n">
-        <v>440.6</v>
+        <v>440.5</v>
       </c>
       <c r="S37" t="n">
-        <v>443.3</v>
+        <v>443.5</v>
       </c>
       <c r="T37" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U37" t="n">
-        <v>6.333333333333333</v>
+        <v>6.909090909090909</v>
       </c>
       <c r="V37" t="n">
-        <v>3.122498999199199</v>
+        <v>3.034835625322609</v>
       </c>
       <c r="W37" t="n">
         <v>2</v>
       </c>
       <c r="X37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA37" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -3450,40 +3450,40 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E38" t="n">
-        <v>1.627911111111111</v>
+        <v>1.624881818181818</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00576269130798374</v>
+        <v>0.007367430630206789</v>
       </c>
       <c r="G38" t="n">
-        <v>1.6192</v>
+        <v>1.6065</v>
       </c>
       <c r="H38" t="n">
-        <v>1.6246</v>
+        <v>1.6203</v>
       </c>
       <c r="I38" t="n">
-        <v>1.6262</v>
+        <v>1.625</v>
       </c>
       <c r="J38" t="n">
-        <v>1.6327</v>
+        <v>1.6294</v>
       </c>
       <c r="K38" t="n">
-        <v>1.6372</v>
+        <v>1.6388</v>
       </c>
       <c r="L38" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M38" t="n">
-        <v>84.40000000000001</v>
+        <v>84.37575757575758</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>0.04351941398892817</v>
       </c>
       <c r="O38" t="n">
-        <v>84.40000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="P38" t="n">
         <v>84.40000000000001</v>
@@ -3498,7 +3498,7 @@
         <v>84.40000000000001</v>
       </c>
       <c r="T38" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U38" t="n">
         <v>16</v>
@@ -3531,37 +3531,37 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E39" t="n">
-        <v>131.5144444444444</v>
+        <v>131.6154545454546</v>
       </c>
       <c r="F39" t="n">
-        <v>1.928776238389976</v>
+        <v>2.754056202800121</v>
       </c>
       <c r="G39" t="n">
-        <v>129.06</v>
+        <v>128.97</v>
       </c>
       <c r="H39" t="n">
-        <v>130.43</v>
+        <v>129.67</v>
       </c>
       <c r="I39" t="n">
         <v>130.92</v>
       </c>
       <c r="J39" t="n">
-        <v>132.6</v>
+        <v>132.36</v>
       </c>
       <c r="K39" t="n">
-        <v>134.61</v>
+        <v>141.44</v>
       </c>
       <c r="L39" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M39" t="n">
-        <v>50946.66666666666</v>
+        <v>50965.48484848485</v>
       </c>
       <c r="N39" t="n">
-        <v>80</v>
+        <v>90.0222615565593</v>
       </c>
       <c r="O39" t="n">
         <v>50920</v>
@@ -3579,7 +3579,7 @@
         <v>51160</v>
       </c>
       <c r="T39" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U39" t="n">
         <v>32</v>
@@ -3614,67 +3614,67 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5695</v>
+        <v>0.6268333333333334</v>
       </c>
       <c r="F40" t="n">
-        <v>0.495830026319504</v>
+        <v>0.756736446305229</v>
       </c>
       <c r="G40" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.0547</v>
       </c>
       <c r="H40" t="n">
-        <v>0.191</v>
+        <v>0.2259</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4315</v>
+        <v>0.4337</v>
       </c>
       <c r="J40" t="n">
         <v>0.7316</v>
       </c>
       <c r="K40" t="n">
-        <v>1.5095</v>
+        <v>4.3827</v>
       </c>
       <c r="L40" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M40" t="n">
-        <v>203.9888888888889</v>
+        <v>203.9424242424242</v>
       </c>
       <c r="N40" t="n">
-        <v>34.54592756188652</v>
+        <v>35.68297940110094</v>
       </c>
       <c r="O40" t="n">
-        <v>154.4</v>
+        <v>123.8</v>
       </c>
       <c r="P40" t="n">
-        <v>187.1</v>
+        <v>178.2</v>
       </c>
       <c r="Q40" t="n">
-        <v>203.2</v>
+        <v>198.1</v>
       </c>
       <c r="R40" t="n">
-        <v>219.4</v>
+        <v>232.9</v>
       </c>
       <c r="S40" t="n">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="T40" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U40" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
-        <v>0.7817359599705717</v>
+        <v>0.6614378277661477</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40" t="n">
         <v>1</v>
@@ -3695,43 +3695,43 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E41" t="n">
-        <v>3.375555555555556</v>
+        <v>3.313969696969697</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3827624397426917</v>
+        <v>0.4339903343428634</v>
       </c>
       <c r="G41" t="n">
-        <v>2.6539</v>
+        <v>2.5551</v>
       </c>
       <c r="H41" t="n">
-        <v>3.2539</v>
+        <v>3.0197</v>
       </c>
       <c r="I41" t="n">
         <v>3.3338</v>
       </c>
       <c r="J41" t="n">
-        <v>3.5629</v>
+        <v>3.6137</v>
       </c>
       <c r="K41" t="n">
-        <v>3.9063</v>
+        <v>3.9851</v>
       </c>
       <c r="L41" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M41" t="n">
-        <v>436.0888888888888</v>
+        <v>435.3272727272728</v>
       </c>
       <c r="N41" t="n">
-        <v>4.197452931375299</v>
+        <v>4.53074722916049</v>
       </c>
       <c r="O41" t="n">
-        <v>425.1</v>
+        <v>425</v>
       </c>
       <c r="P41" t="n">
-        <v>436.5</v>
+        <v>436.1</v>
       </c>
       <c r="Q41" t="n">
         <v>437.3</v>
@@ -3740,28 +3740,28 @@
         <v>438.1</v>
       </c>
       <c r="S41" t="n">
-        <v>438.6</v>
+        <v>439.7</v>
       </c>
       <c r="T41" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U41" t="n">
-        <v>7</v>
+        <v>6.848484848484849</v>
       </c>
       <c r="V41" t="n">
-        <v>2.692582403567252</v>
+        <v>2.980365037638134</v>
       </c>
       <c r="W41" t="n">
         <v>2</v>
       </c>
       <c r="X41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y41" t="n">
         <v>7</v>
       </c>
       <c r="Z41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA41" t="n">
         <v>11</v>
@@ -3776,31 +3776,31 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E42" t="n">
-        <v>1.504588888888889</v>
+        <v>1.504921212121212</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005957231832916293</v>
+        <v>0.006466295190048824</v>
       </c>
       <c r="G42" t="n">
-        <v>1.4943</v>
+        <v>1.4876</v>
       </c>
       <c r="H42" t="n">
-        <v>1.5038</v>
+        <v>1.5005</v>
       </c>
       <c r="I42" t="n">
-        <v>1.5074</v>
+        <v>1.5058</v>
       </c>
       <c r="J42" t="n">
         <v>1.5084</v>
       </c>
       <c r="K42" t="n">
-        <v>1.5112</v>
+        <v>1.5175</v>
       </c>
       <c r="L42" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M42" t="n">
         <v>65.90000000000001</v>
@@ -3824,7 +3824,7 @@
         <v>65.90000000000001</v>
       </c>
       <c r="T42" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U42" t="n">
         <v>4</v>
@@ -3857,37 +3857,37 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E43" t="n">
-        <v>114.6888888888889</v>
+        <v>115.6321212121212</v>
       </c>
       <c r="F43" t="n">
-        <v>1.912501270878299</v>
+        <v>2.941315349439513</v>
       </c>
       <c r="G43" t="n">
         <v>112.4</v>
       </c>
       <c r="H43" t="n">
-        <v>113.27</v>
+        <v>113.38</v>
       </c>
       <c r="I43" t="n">
-        <v>114.73</v>
+        <v>114.74</v>
       </c>
       <c r="J43" t="n">
-        <v>115.15</v>
+        <v>117.39</v>
       </c>
       <c r="K43" t="n">
-        <v>118.58</v>
+        <v>126.3</v>
       </c>
       <c r="L43" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M43" t="n">
-        <v>47834.33333333334</v>
+        <v>47835.09090909091</v>
       </c>
       <c r="N43" t="n">
-        <v>5</v>
+        <v>3.634587634481699</v>
       </c>
       <c r="O43" t="n">
         <v>47821</v>
@@ -3905,7 +3905,7 @@
         <v>47836</v>
       </c>
       <c r="T43" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U43" t="n">
         <v>30</v>
@@ -3944,73 +3944,73 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8421999999999999</v>
+        <v>0.6312272727272727</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9256006266203582</v>
+        <v>0.5850510246298647</v>
       </c>
       <c r="G44" t="n">
-        <v>0.175</v>
+        <v>0.1133</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3579</v>
+        <v>0.299</v>
       </c>
       <c r="I44" t="n">
         <v>0.4568</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6321</v>
+        <v>0.727</v>
       </c>
       <c r="K44" t="n">
         <v>2.5857</v>
       </c>
       <c r="L44" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M44" t="n">
-        <v>213.1888888888889</v>
+        <v>209.0606060606061</v>
       </c>
       <c r="N44" t="n">
-        <v>26.20617505686611</v>
+        <v>29.31288048147456</v>
       </c>
       <c r="O44" t="n">
-        <v>168.7</v>
+        <v>138.7</v>
       </c>
       <c r="P44" t="n">
-        <v>209.9</v>
+        <v>192.1</v>
       </c>
       <c r="Q44" t="n">
         <v>222.1</v>
       </c>
       <c r="R44" t="n">
-        <v>223.4</v>
+        <v>230.1</v>
       </c>
       <c r="S44" t="n">
         <v>252.3</v>
       </c>
       <c r="T44" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U44" t="n">
-        <v>13.22222222222222</v>
+        <v>11.93939393939394</v>
       </c>
       <c r="V44" t="n">
-        <v>8.074307675859551</v>
+        <v>6.754347645865744</v>
       </c>
       <c r="W44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X44" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y44" t="n">
         <v>12</v>
       </c>
       <c r="Z44" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA44" t="n">
         <v>27</v>
@@ -4025,76 +4025,76 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E45" t="n">
-        <v>11.1265</v>
+        <v>11.36768181818182</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8358144231825627</v>
+        <v>0.4823462160721187</v>
       </c>
       <c r="G45" t="n">
         <v>8.970499999999999</v>
       </c>
       <c r="H45" t="n">
-        <v>11.261</v>
+        <v>11.301</v>
       </c>
       <c r="I45" t="n">
-        <v>11.362</v>
+        <v>11.414</v>
       </c>
       <c r="J45" t="n">
-        <v>11.433</v>
+        <v>11.528</v>
       </c>
       <c r="K45" t="n">
-        <v>11.825</v>
+        <v>12.028</v>
       </c>
       <c r="L45" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M45" t="n">
-        <v>781.8555555555554</v>
+        <v>784.1484848484849</v>
       </c>
       <c r="N45" t="n">
-        <v>16.84926638693144</v>
+        <v>13.92161361903051</v>
       </c>
       <c r="O45" t="n">
         <v>754.1</v>
       </c>
       <c r="P45" t="n">
-        <v>770.4</v>
+        <v>773.8</v>
       </c>
       <c r="Q45" t="n">
-        <v>781.8</v>
+        <v>781.9</v>
       </c>
       <c r="R45" t="n">
-        <v>799.9</v>
+        <v>797.2</v>
       </c>
       <c r="S45" t="n">
-        <v>803.5</v>
+        <v>807.6</v>
       </c>
       <c r="T45" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U45" t="n">
-        <v>184.7777777777778</v>
+        <v>192.4848484848485</v>
       </c>
       <c r="V45" t="n">
-        <v>29.22660507901054</v>
+        <v>15.46997335995042</v>
       </c>
       <c r="W45" t="n">
         <v>107</v>
       </c>
       <c r="X45" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Y45" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z45" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA45" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46">
@@ -4106,37 +4106,37 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E46" t="n">
-        <v>58.07277777777777</v>
+        <v>57.87921212121213</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3597866651843054</v>
+        <v>0.4483693899548498</v>
       </c>
       <c r="G46" t="n">
-        <v>57.475</v>
+        <v>56.95</v>
       </c>
       <c r="H46" t="n">
-        <v>57.956</v>
+        <v>57.625</v>
       </c>
       <c r="I46" t="n">
+        <v>57.914</v>
+      </c>
+      <c r="J46" t="n">
         <v>58.13</v>
       </c>
-      <c r="J46" t="n">
-        <v>58.248</v>
-      </c>
       <c r="K46" t="n">
-        <v>58.553</v>
+        <v>58.76</v>
       </c>
       <c r="L46" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M46" t="n">
-        <v>217.9777777777778</v>
+        <v>217.9848484848485</v>
       </c>
       <c r="N46" t="n">
-        <v>0.04409585518440733</v>
+        <v>0.03641095406271889</v>
       </c>
       <c r="O46" t="n">
         <v>217.9</v>
@@ -4154,7 +4154,7 @@
         <v>218</v>
       </c>
       <c r="T46" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U46" t="n">
         <v>802</v>
@@ -4189,67 +4189,67 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E47" t="n">
-        <v>0.879788888888889</v>
+        <v>1.096669696969697</v>
       </c>
       <c r="F47" t="n">
-        <v>1.078393449122866</v>
+        <v>2.385917154691887</v>
       </c>
       <c r="G47" t="n">
         <v>0.1198</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3293</v>
+        <v>0.2336</v>
       </c>
       <c r="I47" t="n">
-        <v>0.5431</v>
+        <v>0.4534</v>
       </c>
       <c r="J47" t="n">
         <v>0.7861</v>
       </c>
       <c r="K47" t="n">
-        <v>3.627</v>
+        <v>13.602</v>
       </c>
       <c r="L47" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M47" t="n">
-        <v>217.1111111111111</v>
+        <v>218.9636363636364</v>
       </c>
       <c r="N47" t="n">
-        <v>29.90378088321126</v>
+        <v>32.66598783694802</v>
       </c>
       <c r="O47" t="n">
         <v>143.6</v>
       </c>
       <c r="P47" t="n">
-        <v>214.4</v>
+        <v>193.3</v>
       </c>
       <c r="Q47" t="n">
-        <v>224.3</v>
+        <v>226.2</v>
       </c>
       <c r="R47" t="n">
-        <v>230.6</v>
+        <v>237</v>
       </c>
       <c r="S47" t="n">
-        <v>249.2</v>
+        <v>301.5</v>
       </c>
       <c r="T47" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U47" t="n">
-        <v>7.111111111111111</v>
+        <v>5.878787878787879</v>
       </c>
       <c r="V47" t="n">
-        <v>4.594682917363407</v>
+        <v>3.323755178235678</v>
       </c>
       <c r="W47" t="n">
         <v>2</v>
       </c>
       <c r="X47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y47" t="n">
         <v>6</v>
@@ -4270,64 +4270,64 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E48" t="n">
-        <v>12.94433333333334</v>
+        <v>12.91936363636364</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1852538798514085</v>
+        <v>0.2258871148081796</v>
       </c>
       <c r="G48" t="n">
-        <v>12.648</v>
+        <v>12.582</v>
       </c>
       <c r="H48" t="n">
-        <v>12.889</v>
+        <v>12.757</v>
       </c>
       <c r="I48" t="n">
-        <v>12.918</v>
+        <v>12.894</v>
       </c>
       <c r="J48" t="n">
-        <v>12.931</v>
+        <v>12.991</v>
       </c>
       <c r="K48" t="n">
-        <v>13.281</v>
+        <v>13.595</v>
       </c>
       <c r="L48" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M48" t="n">
-        <v>861.1444444444445</v>
+        <v>860.3454545454545</v>
       </c>
       <c r="N48" t="n">
-        <v>13.45224062295115</v>
+        <v>9.880223014597478</v>
       </c>
       <c r="O48" t="n">
         <v>842.7</v>
       </c>
       <c r="P48" t="n">
-        <v>850.1</v>
+        <v>854.7</v>
       </c>
       <c r="Q48" t="n">
-        <v>859.7</v>
+        <v>859.3</v>
       </c>
       <c r="R48" t="n">
-        <v>872.8</v>
+        <v>868.6</v>
       </c>
       <c r="S48" t="n">
         <v>880.5</v>
       </c>
       <c r="T48" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U48" t="n">
-        <v>197.1111111111111</v>
+        <v>196.6969696969697</v>
       </c>
       <c r="V48" t="n">
-        <v>1.05409255338946</v>
+        <v>1.286585803708027</v>
       </c>
       <c r="W48" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="X48" t="n">
         <v>196</v>
@@ -4351,40 +4351,40 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E49" t="n">
-        <v>9.559988888888888</v>
+        <v>9.572030303030303</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0543200571714639</v>
+        <v>0.06455265043381492</v>
       </c>
       <c r="G49" t="n">
-        <v>9.4962</v>
+        <v>9.4727</v>
       </c>
       <c r="H49" t="n">
-        <v>9.514099999999999</v>
+        <v>9.5167</v>
       </c>
       <c r="I49" t="n">
-        <v>9.5382</v>
+        <v>9.562900000000001</v>
       </c>
       <c r="J49" t="n">
         <v>9.6151</v>
       </c>
       <c r="K49" t="n">
-        <v>9.6334</v>
+        <v>9.711399999999999</v>
       </c>
       <c r="L49" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M49" t="n">
-        <v>134.4</v>
+        <v>134.3848484848484</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>0.03641095406271889</v>
       </c>
       <c r="O49" t="n">
-        <v>134.4</v>
+        <v>134.3</v>
       </c>
       <c r="P49" t="n">
         <v>134.4</v>
@@ -4399,7 +4399,7 @@
         <v>134.4</v>
       </c>
       <c r="T49" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U49" t="n">
         <v>94</v>
@@ -4434,61 +4434,61 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E50" t="n">
-        <v>2.570933333333334</v>
+        <v>2.767084848484849</v>
       </c>
       <c r="F50" t="n">
-        <v>3.577431741836593</v>
+        <v>5.531767414055001</v>
       </c>
       <c r="G50" t="n">
         <v>0.1032</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2051</v>
+        <v>0.2859</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7882</v>
+        <v>0.6148</v>
       </c>
       <c r="J50" t="n">
-        <v>3.7798</v>
+        <v>1.5677</v>
       </c>
       <c r="K50" t="n">
-        <v>10.228</v>
+        <v>28.915</v>
       </c>
       <c r="L50" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M50" t="n">
-        <v>215.7</v>
+        <v>223.1848484848485</v>
       </c>
       <c r="N50" t="n">
-        <v>43.40895644910161</v>
+        <v>31.83832322465453</v>
       </c>
       <c r="O50" t="n">
         <v>139.8</v>
       </c>
       <c r="P50" t="n">
-        <v>188.8</v>
+        <v>215.2</v>
       </c>
       <c r="Q50" t="n">
-        <v>241.2</v>
+        <v>229.6</v>
       </c>
       <c r="R50" t="n">
-        <v>248</v>
+        <v>246.2</v>
       </c>
       <c r="S50" t="n">
-        <v>248.9</v>
+        <v>291</v>
       </c>
       <c r="T50" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U50" t="n">
-        <v>1.555555555555556</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
-        <v>0.881917103688197</v>
+        <v>1.030776406404415</v>
       </c>
       <c r="W50" t="n">
         <v>1</v>
@@ -4497,13 +4497,13 @@
         <v>1</v>
       </c>
       <c r="Y50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -4515,67 +4515,67 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E51" t="n">
-        <v>13.977</v>
+        <v>13.95048484848485</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1970913493789113</v>
+        <v>0.2495179253595973</v>
       </c>
       <c r="G51" t="n">
-        <v>13.721</v>
+        <v>13.295</v>
       </c>
       <c r="H51" t="n">
-        <v>13.836</v>
+        <v>13.785</v>
       </c>
       <c r="I51" t="n">
-        <v>13.94</v>
+        <v>13.926</v>
       </c>
       <c r="J51" t="n">
-        <v>14.131</v>
+        <v>14.139</v>
       </c>
       <c r="K51" t="n">
-        <v>14.307</v>
+        <v>14.433</v>
       </c>
       <c r="L51" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M51" t="n">
-        <v>844.8666666666666</v>
+        <v>845.6484848484848</v>
       </c>
       <c r="N51" t="n">
-        <v>7.418894796396566</v>
+        <v>6.742269703710749</v>
       </c>
       <c r="O51" t="n">
-        <v>835.9</v>
+        <v>828.5</v>
       </c>
       <c r="P51" t="n">
-        <v>837.9</v>
+        <v>840.4</v>
       </c>
       <c r="Q51" t="n">
-        <v>846.2</v>
+        <v>846.9</v>
       </c>
       <c r="R51" t="n">
-        <v>849.9</v>
+        <v>850.1</v>
       </c>
       <c r="S51" t="n">
-        <v>856.3</v>
+        <v>856.8</v>
       </c>
       <c r="T51" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U51" t="n">
-        <v>197.4444444444445</v>
+        <v>197.2121212121212</v>
       </c>
       <c r="V51" t="n">
-        <v>1.23603308118261</v>
+        <v>1.218543591689885</v>
       </c>
       <c r="W51" t="n">
         <v>195</v>
       </c>
       <c r="X51" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y51" t="n">
         <v>197</v>
@@ -4596,40 +4596,40 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E52" t="n">
-        <v>7.247777777777777</v>
+        <v>7.212948484848485</v>
       </c>
       <c r="F52" t="n">
-        <v>0.04413829906605424</v>
+        <v>0.04844651123411852</v>
       </c>
       <c r="G52" t="n">
-        <v>7.2038</v>
+        <v>7.1166</v>
       </c>
       <c r="H52" t="n">
+        <v>7.1863</v>
+      </c>
+      <c r="I52" t="n">
         <v>7.2059</v>
       </c>
-      <c r="I52" t="n">
-        <v>7.235</v>
-      </c>
       <c r="J52" t="n">
-        <v>7.2852</v>
+        <v>7.2442</v>
       </c>
       <c r="K52" t="n">
         <v>7.3047</v>
       </c>
       <c r="L52" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M52" t="n">
-        <v>81.8</v>
+        <v>81.77272727272727</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>0.05167644091318978</v>
       </c>
       <c r="O52" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="P52" t="n">
         <v>81.8</v>
@@ -4644,7 +4644,7 @@
         <v>81.8</v>
       </c>
       <c r="T52" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U52" t="n">
         <v>26</v>
@@ -4679,61 +4679,61 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E53" t="n">
-        <v>3.083699999999999</v>
+        <v>4.85189393939394</v>
       </c>
       <c r="F53" t="n">
-        <v>5.305167110468811</v>
+        <v>5.634786119052091</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2113</v>
+        <v>0.1783</v>
       </c>
       <c r="H53" t="n">
-        <v>0.4356</v>
+        <v>0.5702</v>
       </c>
       <c r="I53" t="n">
-        <v>0.5834</v>
+        <v>1.1892</v>
       </c>
       <c r="J53" t="n">
-        <v>1.1236</v>
+        <v>8.2036</v>
       </c>
       <c r="K53" t="n">
-        <v>15.508</v>
+        <v>19.809</v>
       </c>
       <c r="L53" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M53" t="n">
-        <v>227.9888888888889</v>
+        <v>240.8090909090909</v>
       </c>
       <c r="N53" t="n">
-        <v>14.01619103433993</v>
+        <v>25.73214628189276</v>
       </c>
       <c r="O53" t="n">
-        <v>204</v>
+        <v>192.6</v>
       </c>
       <c r="P53" t="n">
-        <v>221.7</v>
+        <v>227.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>230.1</v>
+        <v>240.3</v>
       </c>
       <c r="R53" t="n">
-        <v>233.7</v>
+        <v>248.6</v>
       </c>
       <c r="S53" t="n">
-        <v>248.3</v>
+        <v>343.3</v>
       </c>
       <c r="T53" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U53" t="n">
-        <v>1.666666666666667</v>
+        <v>1.575757575757576</v>
       </c>
       <c r="V53" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.5607084263625253</v>
       </c>
       <c r="W53" t="n">
         <v>1</v>
@@ -4760,76 +4760,76 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E54" t="n">
-        <v>16.84511111111111</v>
+        <v>16.91927272727273</v>
       </c>
       <c r="F54" t="n">
-        <v>0.372713846148907</v>
+        <v>0.4521198868059825</v>
       </c>
       <c r="G54" t="n">
-        <v>16.372</v>
+        <v>16.1</v>
       </c>
       <c r="H54" t="n">
         <v>16.607</v>
       </c>
       <c r="I54" t="n">
-        <v>16.709</v>
+        <v>16.83</v>
       </c>
       <c r="J54" t="n">
-        <v>17.104</v>
+        <v>17.23</v>
       </c>
       <c r="K54" t="n">
-        <v>17.552</v>
+        <v>17.95</v>
       </c>
       <c r="L54" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M54" t="n">
-        <v>706.2111111111111</v>
+        <v>707.1727272727273</v>
       </c>
       <c r="N54" t="n">
-        <v>14.07048723787173</v>
+        <v>15.91931359872485</v>
       </c>
       <c r="O54" t="n">
-        <v>686.4</v>
+        <v>684.9</v>
       </c>
       <c r="P54" t="n">
-        <v>699.2</v>
+        <v>697.8</v>
       </c>
       <c r="Q54" t="n">
-        <v>703.6</v>
+        <v>704.2</v>
       </c>
       <c r="R54" t="n">
-        <v>709</v>
+        <v>714.8</v>
       </c>
       <c r="S54" t="n">
-        <v>736.1</v>
+        <v>745.8</v>
       </c>
       <c r="T54" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U54" t="n">
-        <v>196.5555555555555</v>
+        <v>197.4242424242424</v>
       </c>
       <c r="V54" t="n">
-        <v>1.013793755049703</v>
+        <v>1.1734112405265</v>
       </c>
       <c r="W54" t="n">
         <v>195</v>
       </c>
       <c r="X54" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y54" t="n">
         <v>197</v>
       </c>
       <c r="Z54" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA54" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55">
@@ -4841,31 +4841,31 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E55" t="n">
-        <v>7.184255555555556</v>
+        <v>7.13850606060606</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05358778104920744</v>
+        <v>0.0665855649681012</v>
       </c>
       <c r="G55" t="n">
-        <v>7.0733</v>
+        <v>6.9594</v>
       </c>
       <c r="H55" t="n">
-        <v>7.1667</v>
+        <v>7.0982</v>
       </c>
       <c r="I55" t="n">
-        <v>7.1866</v>
+        <v>7.1477</v>
       </c>
       <c r="J55" t="n">
-        <v>7.2152</v>
+        <v>7.1684</v>
       </c>
       <c r="K55" t="n">
         <v>7.2582</v>
       </c>
       <c r="L55" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M55" t="n">
         <v>68.7</v>
@@ -4889,7 +4889,7 @@
         <v>68.7</v>
       </c>
       <c r="T55" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U55" t="n">
         <v>12</v>
@@ -4924,55 +4924,55 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E56" t="n">
-        <v>16.14328888888889</v>
+        <v>12.54045757575758</v>
       </c>
       <c r="F56" t="n">
-        <v>12.70572149903779</v>
+        <v>8.618695189855824</v>
       </c>
       <c r="G56" t="n">
-        <v>5.0467</v>
+        <v>4.1804</v>
       </c>
       <c r="H56" t="n">
-        <v>8.992900000000001</v>
+        <v>7.3239</v>
       </c>
       <c r="I56" t="n">
-        <v>9.735200000000001</v>
+        <v>9.2911</v>
       </c>
       <c r="J56" t="n">
-        <v>17.427</v>
+        <v>14.928</v>
       </c>
       <c r="K56" t="n">
         <v>45.095</v>
       </c>
       <c r="L56" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M56" t="n">
-        <v>255.5111111111111</v>
+        <v>249.4606060606061</v>
       </c>
       <c r="N56" t="n">
-        <v>21.0559637896514</v>
+        <v>11.74249599196065</v>
       </c>
       <c r="O56" t="n">
-        <v>245</v>
+        <v>234.3</v>
       </c>
       <c r="P56" t="n">
-        <v>247.3</v>
+        <v>244.9</v>
       </c>
       <c r="Q56" t="n">
-        <v>249.5</v>
+        <v>247.7</v>
       </c>
       <c r="R56" t="n">
-        <v>251.1</v>
+        <v>249.7</v>
       </c>
       <c r="S56" t="n">
         <v>311.4</v>
       </c>
       <c r="T56" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
@@ -5005,67 +5005,67 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E57" t="n">
-        <v>19.87566666666667</v>
+        <v>19.94121212121212</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4945861906685227</v>
+        <v>0.517073904145708</v>
       </c>
       <c r="G57" t="n">
-        <v>19.398</v>
+        <v>19.208</v>
       </c>
       <c r="H57" t="n">
-        <v>19.477</v>
+        <v>19.571</v>
       </c>
       <c r="I57" t="n">
-        <v>19.928</v>
+        <v>19.919</v>
       </c>
       <c r="J57" t="n">
-        <v>19.965</v>
+        <v>20.145</v>
       </c>
       <c r="K57" t="n">
-        <v>21.03</v>
+        <v>21.717</v>
       </c>
       <c r="L57" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M57" t="n">
-        <v>488.5111111111112</v>
+        <v>487.3090909090908</v>
       </c>
       <c r="N57" t="n">
-        <v>5.182288211891646</v>
+        <v>5.613452794201381</v>
       </c>
       <c r="O57" t="n">
-        <v>481.8</v>
+        <v>475.9</v>
       </c>
       <c r="P57" t="n">
-        <v>484.8</v>
+        <v>484.1</v>
       </c>
       <c r="Q57" t="n">
-        <v>489.6</v>
+        <v>486.3</v>
       </c>
       <c r="R57" t="n">
-        <v>491.1</v>
+        <v>491.2</v>
       </c>
       <c r="S57" t="n">
-        <v>496.8</v>
+        <v>497.5</v>
       </c>
       <c r="T57" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U57" t="n">
-        <v>197.6666666666667</v>
+        <v>197.5757575757576</v>
       </c>
       <c r="V57" t="n">
-        <v>1.322875655532295</v>
+        <v>1.323591303761829</v>
       </c>
       <c r="W57" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X57" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y57" t="n">
         <v>198</v>
@@ -5086,31 +5086,31 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E58" t="n">
-        <v>2.407255555555556</v>
+        <v>2.4017</v>
       </c>
       <c r="F58" t="n">
-        <v>0.006936517698224232</v>
+        <v>0.01073030171989587</v>
       </c>
       <c r="G58" t="n">
-        <v>2.3972</v>
+        <v>2.3801</v>
       </c>
       <c r="H58" t="n">
-        <v>2.4006</v>
+        <v>2.3958</v>
       </c>
       <c r="I58" t="n">
-        <v>2.4073</v>
+        <v>2.4049</v>
       </c>
       <c r="J58" t="n">
-        <v>2.4126</v>
+        <v>2.4095</v>
       </c>
       <c r="K58" t="n">
         <v>2.4176</v>
       </c>
       <c r="L58" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M58" t="n">
         <v>44.3</v>
@@ -5134,7 +5134,7 @@
         <v>44.3</v>
       </c>
       <c r="T58" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1119777777777778</v>
+        <v>0.1101848484848485</v>
       </c>
       <c r="F59" t="n">
-        <v>0.02809625321007135</v>
+        <v>0.02647657126135436</v>
       </c>
       <c r="G59" t="n">
         <v>0.0765</v>
       </c>
       <c r="H59" t="n">
-        <v>0.08459999999999999</v>
+        <v>0.0861</v>
       </c>
       <c r="I59" t="n">
         <v>0.1049</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1354</v>
+        <v>0.1327</v>
       </c>
       <c r="K59" t="n">
-        <v>0.1514</v>
+        <v>0.1858</v>
       </c>
       <c r="L59" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M59" t="n">
-        <v>119.3888888888889</v>
+        <v>121.8848484848485</v>
       </c>
       <c r="N59" t="n">
-        <v>9.982164650571097</v>
+        <v>12.95815672684876</v>
       </c>
       <c r="O59" t="n">
-        <v>106</v>
+        <v>101.6</v>
       </c>
       <c r="P59" t="n">
-        <v>111.1</v>
+        <v>113.4</v>
       </c>
       <c r="Q59" t="n">
-        <v>121.9</v>
+        <v>121.7</v>
       </c>
       <c r="R59" t="n">
-        <v>126.5</v>
+        <v>130.3</v>
       </c>
       <c r="S59" t="n">
-        <v>133.8</v>
+        <v>163.8</v>
       </c>
       <c r="T59" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U59" t="n">
-        <v>1.888888888888889</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="V59" t="n">
-        <v>0.7817359599705717</v>
+        <v>0.9770084209183943</v>
       </c>
       <c r="W59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y59" t="n">
         <v>2</v>
       </c>
       <c r="Z59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E60" t="n">
-        <v>21.32366666666666</v>
+        <v>21.41457575757576</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5049596518534925</v>
+        <v>0.8198187692374086</v>
       </c>
       <c r="G60" t="n">
-        <v>20.601</v>
+        <v>19.077</v>
       </c>
       <c r="H60" t="n">
-        <v>20.978</v>
+        <v>21.025</v>
       </c>
       <c r="I60" t="n">
-        <v>21.163</v>
+        <v>21.414</v>
       </c>
       <c r="J60" t="n">
-        <v>21.588</v>
+        <v>21.856</v>
       </c>
       <c r="K60" t="n">
-        <v>22.146</v>
+        <v>23.245</v>
       </c>
       <c r="L60" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M60" t="n">
-        <v>1233.444444444444</v>
+        <v>1233.939393939394</v>
       </c>
       <c r="N60" t="n">
-        <v>0.881917103688197</v>
+        <v>1.27326828328209</v>
       </c>
       <c r="O60" t="n">
         <v>1233</v>
@@ -5296,19 +5296,19 @@
         <v>1233</v>
       </c>
       <c r="R60" t="n">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="S60" t="n">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="T60" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U60" t="n">
-        <v>1.222222222222222</v>
+        <v>1.484848484848485</v>
       </c>
       <c r="V60" t="n">
-        <v>0.4409585518440984</v>
+        <v>0.6671399834935375</v>
       </c>
       <c r="W60" t="n">
         <v>1</v>
@@ -5320,10 +5320,10 @@
         <v>1</v>
       </c>
       <c r="Z60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -5335,46 +5335,46 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3828111111111111</v>
+        <v>0.3880727272727272</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004945817537183407</v>
+        <v>0.01535920474681373</v>
       </c>
       <c r="G61" t="n">
-        <v>0.3788</v>
+        <v>0.3772</v>
       </c>
       <c r="H61" t="n">
-        <v>0.3798</v>
+        <v>0.3805</v>
       </c>
       <c r="I61" t="n">
-        <v>0.3808</v>
+        <v>0.3836</v>
       </c>
       <c r="J61" t="n">
-        <v>0.3837</v>
+        <v>0.387</v>
       </c>
       <c r="K61" t="n">
-        <v>0.3949</v>
+        <v>0.4345</v>
       </c>
       <c r="L61" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M61" t="n">
-        <v>73.54444444444444</v>
+        <v>73.55151515151513</v>
       </c>
       <c r="N61" t="n">
-        <v>0.05270462766946999</v>
+        <v>0.05657523818559859</v>
       </c>
       <c r="O61" t="n">
-        <v>73.5</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="P61" t="n">
         <v>73.5</v>
       </c>
       <c r="Q61" t="n">
-        <v>73.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="R61" t="n">
         <v>73.59999999999999</v>
@@ -5383,7 +5383,7 @@
         <v>73.59999999999999</v>
       </c>
       <c r="T61" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U61" t="n">
         <v>7</v>
@@ -5416,31 +5416,31 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E62" t="n">
-        <v>263.5911111111111</v>
+        <v>269.689090909091</v>
       </c>
       <c r="F62" t="n">
-        <v>2.661829466947702</v>
+        <v>6.419098633977151</v>
       </c>
       <c r="G62" t="n">
         <v>258.3</v>
       </c>
       <c r="H62" t="n">
-        <v>263.12</v>
+        <v>265.58</v>
       </c>
       <c r="I62" t="n">
-        <v>263.64</v>
+        <v>268.73</v>
       </c>
       <c r="J62" t="n">
-        <v>265.58</v>
+        <v>274.68</v>
       </c>
       <c r="K62" t="n">
-        <v>267.5</v>
+        <v>286.29</v>
       </c>
       <c r="L62" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M62" t="n">
         <v>29988</v>
@@ -5464,7 +5464,7 @@
         <v>29988</v>
       </c>
       <c r="T62" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U62" t="n">
         <v>9</v>
@@ -5499,61 +5499,61 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E63" t="n">
-        <v>0.09176666666666666</v>
+        <v>0.1126787878787879</v>
       </c>
       <c r="F63" t="n">
-        <v>0.02296551762969866</v>
+        <v>0.03901477090135028</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0667</v>
+        <v>0.0605</v>
       </c>
       <c r="H63" t="n">
-        <v>0.07480000000000001</v>
+        <v>0.0772</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0827</v>
+        <v>0.1127</v>
       </c>
       <c r="J63" t="n">
-        <v>0.118</v>
+        <v>0.1434</v>
       </c>
       <c r="K63" t="n">
-        <v>0.1252</v>
+        <v>0.2004</v>
       </c>
       <c r="L63" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M63" t="n">
-        <v>121.7222222222222</v>
+        <v>129.9969696969697</v>
       </c>
       <c r="N63" t="n">
-        <v>14.15801696723254</v>
+        <v>22.84932281338559</v>
       </c>
       <c r="O63" t="n">
-        <v>104.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="P63" t="n">
-        <v>112.1</v>
+        <v>113.9</v>
       </c>
       <c r="Q63" t="n">
-        <v>119.6</v>
+        <v>126.1</v>
       </c>
       <c r="R63" t="n">
-        <v>132.2</v>
+        <v>142.2</v>
       </c>
       <c r="S63" t="n">
-        <v>142.9</v>
+        <v>200.1</v>
       </c>
       <c r="T63" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U63" t="n">
-        <v>1.222222222222222</v>
+        <v>1.575757575757576</v>
       </c>
       <c r="V63" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7512615652314042</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
@@ -5562,13 +5562,13 @@
         <v>1</v>
       </c>
       <c r="Y63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z63" t="n">
         <v>2</v>
       </c>
       <c r="AA63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -5580,37 +5580,37 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E64" t="n">
-        <v>21.95177777777777</v>
+        <v>21.74281818181818</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7339226420028506</v>
+        <v>0.6570903883097751</v>
       </c>
       <c r="G64" t="n">
-        <v>20.767</v>
+        <v>20.636</v>
       </c>
       <c r="H64" t="n">
-        <v>21.336</v>
+        <v>21.2</v>
       </c>
       <c r="I64" t="n">
+        <v>21.698</v>
+      </c>
+      <c r="J64" t="n">
         <v>22.212</v>
       </c>
-      <c r="J64" t="n">
-        <v>22.497</v>
-      </c>
       <c r="K64" t="n">
-        <v>22.714</v>
+        <v>22.967</v>
       </c>
       <c r="L64" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M64" t="n">
-        <v>1234.555555555556</v>
+        <v>1234.30303030303</v>
       </c>
       <c r="N64" t="n">
-        <v>1.333333333333333</v>
+        <v>1.42488702369803</v>
       </c>
       <c r="O64" t="n">
         <v>1233</v>
@@ -5628,13 +5628,13 @@
         <v>1237</v>
       </c>
       <c r="T64" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U64" t="n">
-        <v>1.777777777777778</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="V64" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7359800721939872</v>
       </c>
       <c r="W64" t="n">
         <v>1</v>
@@ -5661,40 +5661,40 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1921888888888889</v>
+        <v>0.1915212121212121</v>
       </c>
       <c r="F65" t="n">
-        <v>0.009298984412886768</v>
+        <v>0.00871527959877642</v>
       </c>
       <c r="G65" t="n">
         <v>0.185</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1863</v>
+        <v>0.1869</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1895</v>
+        <v>0.1879</v>
       </c>
       <c r="J65" t="n">
-        <v>0.1933</v>
+        <v>0.1923</v>
       </c>
       <c r="K65" t="n">
-        <v>0.215</v>
+        <v>0.2153</v>
       </c>
       <c r="L65" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M65" t="n">
-        <v>67.3</v>
+        <v>67.29696969696968</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>0.01740776559556879</v>
       </c>
       <c r="O65" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="P65" t="n">
         <v>67.3</v>
@@ -5709,7 +5709,7 @@
         <v>67.3</v>
       </c>
       <c r="T65" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U65" t="n">
         <v>3</v>
@@ -5742,31 +5742,31 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E66" t="n">
-        <v>269.8411111111111</v>
+        <v>268.1851515151515</v>
       </c>
       <c r="F66" t="n">
-        <v>5.429644197469214</v>
+        <v>5.127952881762443</v>
       </c>
       <c r="G66" t="n">
-        <v>263.42</v>
+        <v>258.93</v>
       </c>
       <c r="H66" t="n">
-        <v>266.01</v>
+        <v>264.81</v>
       </c>
       <c r="I66" t="n">
-        <v>268.75</v>
+        <v>267.36</v>
       </c>
       <c r="J66" t="n">
-        <v>272.57</v>
+        <v>269.75</v>
       </c>
       <c r="K66" t="n">
-        <v>279.25</v>
+        <v>282.45</v>
       </c>
       <c r="L66" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M66" t="n">
         <v>29988</v>
@@ -5790,7 +5790,7 @@
         <v>29988</v>
       </c>
       <c r="T66" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U66" t="n">
         <v>9</v>
@@ -5825,64 +5825,64 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E67" t="n">
-        <v>0.09437777777777778</v>
+        <v>0.09958787878787878</v>
       </c>
       <c r="F67" t="n">
-        <v>0.03513644040656999</v>
+        <v>0.03527850582840561</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0583</v>
+        <v>0.0546</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0699</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0808</v>
+        <v>0.0852</v>
       </c>
       <c r="J67" t="n">
-        <v>0.1056</v>
+        <v>0.134</v>
       </c>
       <c r="K67" t="n">
-        <v>0.1528</v>
+        <v>0.1685</v>
       </c>
       <c r="L67" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M67" t="n">
-        <v>122.3111111111111</v>
+        <v>122.1151515151515</v>
       </c>
       <c r="N67" t="n">
-        <v>22.19833577345633</v>
+        <v>19.54410271047448</v>
       </c>
       <c r="O67" t="n">
-        <v>93.2</v>
+        <v>92.5</v>
       </c>
       <c r="P67" t="n">
-        <v>104.4</v>
+        <v>104.8</v>
       </c>
       <c r="Q67" t="n">
         <v>120.7</v>
       </c>
       <c r="R67" t="n">
-        <v>134.9</v>
+        <v>134.6</v>
       </c>
       <c r="S67" t="n">
-        <v>151.6</v>
+        <v>158.8</v>
       </c>
       <c r="T67" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U67" t="n">
         <v>1.666666666666667</v>
       </c>
       <c r="V67" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.7359800721939872</v>
       </c>
       <c r="W67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X67" t="n">
         <v>1</v>
@@ -5906,37 +5906,37 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E68" t="n">
-        <v>21.21022222222222</v>
+        <v>21.64224242424242</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8184602583170691</v>
+        <v>1.00920550528321</v>
       </c>
       <c r="G68" t="n">
-        <v>19.948</v>
+        <v>19.211</v>
       </c>
       <c r="H68" t="n">
-        <v>20.667</v>
+        <v>21.044</v>
       </c>
       <c r="I68" t="n">
-        <v>21.182</v>
+        <v>21.49</v>
       </c>
       <c r="J68" t="n">
-        <v>21.791</v>
+        <v>22.374</v>
       </c>
       <c r="K68" t="n">
-        <v>22.615</v>
+        <v>24.234</v>
       </c>
       <c r="L68" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M68" t="n">
-        <v>1233.444444444444</v>
+        <v>1234.060606060606</v>
       </c>
       <c r="N68" t="n">
-        <v>0.881917103688197</v>
+        <v>1.321443196362266</v>
       </c>
       <c r="O68" t="n">
         <v>1233</v>
@@ -5948,19 +5948,19 @@
         <v>1233</v>
       </c>
       <c r="R68" t="n">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="S68" t="n">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="T68" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U68" t="n">
-        <v>1.222222222222222</v>
+        <v>1.545454545454545</v>
       </c>
       <c r="V68" t="n">
-        <v>0.4409585518440984</v>
+        <v>0.7111130839619098</v>
       </c>
       <c r="W68" t="n">
         <v>1</v>
@@ -5972,10 +5972,10 @@
         <v>1</v>
       </c>
       <c r="Z68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -5987,13 +5987,13 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1922222222222222</v>
+        <v>0.1911878787878788</v>
       </c>
       <c r="F69" t="n">
-        <v>0.009272375339924746</v>
+        <v>0.007585502520258532</v>
       </c>
       <c r="G69" t="n">
         <v>0.1853</v>
@@ -6002,25 +6002,25 @@
         <v>0.1873</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1879</v>
+        <v>0.1882</v>
       </c>
       <c r="J69" t="n">
-        <v>0.1941</v>
+        <v>0.1921</v>
       </c>
       <c r="K69" t="n">
         <v>0.2151</v>
       </c>
       <c r="L69" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M69" t="n">
-        <v>67.3</v>
+        <v>67.29393939393938</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>0.02423058422987661</v>
       </c>
       <c r="O69" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="P69" t="n">
         <v>67.3</v>
@@ -6035,7 +6035,7 @@
         <v>67.3</v>
       </c>
       <c r="T69" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U69" t="n">
         <v>3</v>
@@ -6068,31 +6068,31 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E70" t="n">
-        <v>267.1633333333333</v>
+        <v>267.7021212121211</v>
       </c>
       <c r="F70" t="n">
-        <v>3.628625772933881</v>
+        <v>5.076940982013527</v>
       </c>
       <c r="G70" t="n">
-        <v>263.49</v>
+        <v>258.93</v>
       </c>
       <c r="H70" t="n">
-        <v>265.51</v>
+        <v>264.89</v>
       </c>
       <c r="I70" t="n">
         <v>266.29</v>
       </c>
       <c r="J70" t="n">
-        <v>267.69</v>
+        <v>273.05</v>
       </c>
       <c r="K70" t="n">
-        <v>275.18</v>
+        <v>277.07</v>
       </c>
       <c r="L70" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M70" t="n">
         <v>29987</v>
@@ -6116,7 +6116,7 @@
         <v>29987</v>
       </c>
       <c r="T70" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U70" t="n">
         <v>9</v>
@@ -6151,43 +6151,43 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1196444444444444</v>
+        <v>0.1245181818181818</v>
       </c>
       <c r="F71" t="n">
-        <v>0.03836639516266518</v>
+        <v>0.04180006320678127</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0668</v>
+        <v>0.0593</v>
       </c>
       <c r="H71" t="n">
         <v>0.08939999999999999</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1343</v>
+        <v>0.129</v>
       </c>
       <c r="J71" t="n">
-        <v>0.1571</v>
+        <v>0.1491</v>
       </c>
       <c r="K71" t="n">
-        <v>0.1579</v>
+        <v>0.2264</v>
       </c>
       <c r="L71" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M71" t="n">
-        <v>131.3111111111111</v>
+        <v>133.0393939393939</v>
       </c>
       <c r="N71" t="n">
-        <v>20.03456041721682</v>
+        <v>21.68900844024946</v>
       </c>
       <c r="O71" t="n">
-        <v>106.5</v>
+        <v>93.2</v>
       </c>
       <c r="P71" t="n">
-        <v>115.2</v>
+        <v>119.2</v>
       </c>
       <c r="Q71" t="n">
         <v>130.3</v>
@@ -6196,16 +6196,16 @@
         <v>145</v>
       </c>
       <c r="S71" t="n">
-        <v>161.9</v>
+        <v>191.6</v>
       </c>
       <c r="T71" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U71" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="V71" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.4351941398892446</v>
       </c>
       <c r="W71" t="n">
         <v>0</v>
@@ -6232,37 +6232,37 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E72" t="n">
-        <v>21.11033333333333</v>
+        <v>21.61948484848485</v>
       </c>
       <c r="F72" t="n">
-        <v>1.084064804335977</v>
+        <v>1.111944471444396</v>
       </c>
       <c r="G72" t="n">
-        <v>19.091</v>
+        <v>18.915</v>
       </c>
       <c r="H72" t="n">
-        <v>20.486</v>
+        <v>20.98</v>
       </c>
       <c r="I72" t="n">
-        <v>21.181</v>
+        <v>21.776</v>
       </c>
       <c r="J72" t="n">
-        <v>21.776</v>
+        <v>22.574</v>
       </c>
       <c r="K72" t="n">
-        <v>22.687</v>
+        <v>23.644</v>
       </c>
       <c r="L72" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M72" t="n">
-        <v>1232.888888888889</v>
+        <v>1233.575757575758</v>
       </c>
       <c r="N72" t="n">
-        <v>1.05409255338946</v>
+        <v>1.323591303761829</v>
       </c>
       <c r="O72" t="n">
         <v>1232</v>
@@ -6271,22 +6271,22 @@
         <v>1232</v>
       </c>
       <c r="Q72" t="n">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="R72" t="n">
         <v>1234</v>
       </c>
       <c r="S72" t="n">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="T72" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U72" t="n">
-        <v>1.444444444444444</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="V72" t="n">
-        <v>0.5270462766947299</v>
+        <v>0.7269175268963397</v>
       </c>
       <c r="W72" t="n">
         <v>1</v>
@@ -6295,13 +6295,13 @@
         <v>1</v>
       </c>
       <c r="Y72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z72" t="n">
         <v>2</v>
       </c>
       <c r="AA72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -6313,37 +6313,37 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1750444444444444</v>
+        <v>0.1743909090909091</v>
       </c>
       <c r="F73" t="n">
-        <v>0.007414868695922925</v>
+        <v>0.007203009945344186</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1685</v>
+        <v>0.1681</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1709</v>
+        <v>0.1699</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1741</v>
+        <v>0.1718</v>
       </c>
       <c r="J73" t="n">
-        <v>0.176</v>
+        <v>0.1752</v>
       </c>
       <c r="K73" t="n">
-        <v>0.1928</v>
+        <v>0.1938</v>
       </c>
       <c r="L73" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M73" t="n">
-        <v>59.98888888888889</v>
+        <v>59.9969696969697</v>
       </c>
       <c r="N73" t="n">
-        <v>0.03333333333333381</v>
+        <v>0.01740776559557003</v>
       </c>
       <c r="O73" t="n">
         <v>59.9</v>
@@ -6361,7 +6361,7 @@
         <v>60</v>
       </c>
       <c r="T73" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U73" t="n">
         <v>2</v>
@@ -6394,31 +6394,31 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E74" t="n">
-        <v>215.5077777777778</v>
+        <v>215.9612121212121</v>
       </c>
       <c r="F74" t="n">
-        <v>3.979408805896228</v>
+        <v>4.323826977903775</v>
       </c>
       <c r="G74" t="n">
         <v>209.41</v>
       </c>
       <c r="H74" t="n">
-        <v>213.24</v>
+        <v>213.25</v>
       </c>
       <c r="I74" t="n">
-        <v>214.93</v>
+        <v>214.56</v>
       </c>
       <c r="J74" t="n">
-        <v>217.91</v>
+        <v>219.3</v>
       </c>
       <c r="K74" t="n">
-        <v>221.24</v>
+        <v>227.25</v>
       </c>
       <c r="L74" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M74" t="n">
         <v>26590</v>
@@ -6442,7 +6442,7 @@
         <v>26590</v>
       </c>
       <c r="T74" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U74" t="n">
         <v>8</v>
@@ -6477,61 +6477,61 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1434555555555556</v>
+        <v>0.1305909090909091</v>
       </c>
       <c r="F75" t="n">
-        <v>0.03781749301286083</v>
+        <v>0.03361069736367764</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0771</v>
+        <v>0.0609</v>
       </c>
       <c r="H75" t="n">
-        <v>0.124</v>
+        <v>0.1069</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1497</v>
+        <v>0.1338</v>
       </c>
       <c r="J75" t="n">
-        <v>0.1605</v>
+        <v>0.1534</v>
       </c>
       <c r="K75" t="n">
         <v>0.2111</v>
       </c>
       <c r="L75" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M75" t="n">
-        <v>146.4333333333333</v>
+        <v>138.6545454545454</v>
       </c>
       <c r="N75" t="n">
-        <v>27.2785171884397</v>
+        <v>21.13607832163246</v>
       </c>
       <c r="O75" t="n">
-        <v>112.1</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="P75" t="n">
-        <v>131.1</v>
+        <v>124.7</v>
       </c>
       <c r="Q75" t="n">
-        <v>139.7</v>
+        <v>136.6</v>
       </c>
       <c r="R75" t="n">
-        <v>165.7</v>
+        <v>153</v>
       </c>
       <c r="S75" t="n">
         <v>185.9</v>
       </c>
       <c r="T75" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U75" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="V75" t="n">
-        <v>0.5</v>
+        <v>0.5018903659106632</v>
       </c>
       <c r="W75" t="n">
         <v>0</v>
@@ -6558,37 +6558,37 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E76" t="n">
-        <v>21.79388888888889</v>
+        <v>21.70648484848485</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9504160200202393</v>
+        <v>1.076822005986021</v>
       </c>
       <c r="G76" t="n">
-        <v>20.653</v>
+        <v>19.066</v>
       </c>
       <c r="H76" t="n">
-        <v>21.14</v>
+        <v>20.922</v>
       </c>
       <c r="I76" t="n">
-        <v>21.469</v>
+        <v>21.491</v>
       </c>
       <c r="J76" t="n">
-        <v>22.379</v>
+        <v>22.347</v>
       </c>
       <c r="K76" t="n">
-        <v>23.23</v>
+        <v>24.363</v>
       </c>
       <c r="L76" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M76" t="n">
-        <v>1233.333333333333</v>
+        <v>1233.272727272727</v>
       </c>
       <c r="N76" t="n">
-        <v>1.322875655532295</v>
+        <v>1.352606910578774</v>
       </c>
       <c r="O76" t="n">
         <v>1232</v>
@@ -6603,16 +6603,16 @@
         <v>1234</v>
       </c>
       <c r="S76" t="n">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="T76" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U76" t="n">
-        <v>1.777777777777778</v>
+        <v>1.696969696969697</v>
       </c>
       <c r="V76" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7699370300894939</v>
       </c>
       <c r="W76" t="n">
         <v>1</v>
@@ -6639,16 +6639,16 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1751111111111111</v>
+        <v>0.1736272727272727</v>
       </c>
       <c r="F77" t="n">
-        <v>0.009168484668205053</v>
+        <v>0.006981908439284024</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1688</v>
+        <v>0.1674</v>
       </c>
       <c r="H77" t="n">
         <v>0.1697</v>
@@ -6657,22 +6657,22 @@
         <v>0.1709</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1745</v>
+        <v>0.1748</v>
       </c>
       <c r="K77" t="n">
-        <v>0.1931</v>
+        <v>0.1932</v>
       </c>
       <c r="L77" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M77" t="n">
-        <v>60</v>
+        <v>59.98787878787878</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>0.03314339826398132</v>
       </c>
       <c r="O77" t="n">
-        <v>60</v>
+        <v>59.9</v>
       </c>
       <c r="P77" t="n">
         <v>60</v>
@@ -6687,7 +6687,7 @@
         <v>60</v>
       </c>
       <c r="T77" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U77" t="n">
         <v>2</v>
@@ -6720,13 +6720,13 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E78" t="n">
-        <v>216.0133333333333</v>
+        <v>216.5584848484849</v>
       </c>
       <c r="F78" t="n">
-        <v>4.725489392644953</v>
+        <v>4.54885158667281</v>
       </c>
       <c r="G78" t="n">
         <v>210.08</v>
@@ -6735,16 +6735,16 @@
         <v>213</v>
       </c>
       <c r="I78" t="n">
-        <v>215.87</v>
+        <v>215.95</v>
       </c>
       <c r="J78" t="n">
-        <v>218.01</v>
+        <v>220.35</v>
       </c>
       <c r="K78" t="n">
         <v>225.29</v>
       </c>
       <c r="L78" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M78" t="n">
         <v>26590</v>
@@ -6768,7 +6768,7 @@
         <v>26590</v>
       </c>
       <c r="T78" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U78" t="n">
         <v>8</v>
